--- a/sample_reading_fluency_data.xlsx
+++ b/sample_reading_fluency_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndreaBolivar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndreaBolivar/Documents/psychopy_gablab/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1840" windowWidth="13920" windowHeight="15100" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1600" windowWidth="13920" windowHeight="15100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>sentence</t>
-  </si>
-  <si>
-    <t>input</t>
   </si>
   <si>
     <t>answer</t>
@@ -377,7 +374,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,59 +387,56 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
